--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/8.8/P and B constant/trial_8.8_PBconstant_output.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/8.8/P and B constant/trial_8.8_PBconstant_output.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Desktop\ISMB 2025\trial 8 permutations\8.8\P and B constant\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4AB07-37A7-4675-96CA-4BA0FFCD9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="877" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="18345" windowHeight="11745" tabRatio="877" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -151,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -923,8 +917,8 @@
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="348" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="Normal 3" xfId="277" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 2" xfId="348"/>
+    <cellStyle name="Normal 3" xfId="277"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1260,21 +1254,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1290,7 +1284,7 @@
         <v>0.30643999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1298,7 +1292,7 @@
         <v>0.30643999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1306,22 +1300,22 @@
         <v>0.30643999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1334,16 +1328,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFDC6CC-9483-4593-B5AC-F10EE1BB34B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1365,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.9999973943270692</v>
+        <v>1.9999973943278728</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1382,18 +1376,18 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-1.9999998925805875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.999999892580574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.99999997038482591</v>
+        <v>0.9999999703847029</v>
       </c>
       <c r="C4">
-        <v>-0.99999817842312744</v>
+        <v>-0.99999817842255556</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1405,16 +1399,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5373DD0-E298-4710-BDF4-AAE203B35841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1422,23 +1416,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
-        <v>4.0551975856369374E-14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.0551967947045295E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>2.4999963613141638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.4999963613146061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1440,7 @@
         <v>9.8765638173704394E-35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1454,12 +1448,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1467,28 +1461,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8">
-        <v>8.7973448471619609E-14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.7973401754907577E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
-        <v>2.8485636608395358E-14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.8485654401995862E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
-        <v>5.1968424890931442E-15</v>
+        <v>5.1968476842324561E-15</v>
       </c>
     </row>
   </sheetData>
@@ -1497,21 +1491,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1519,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +1521,7 @@
         <v>0.15323000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1535,7 +1529,7 @@
         <v>0.15323000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1543,7 +1537,7 @@
         <v>0.15323000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
   </sheetData>
@@ -1558,23 +1552,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="24" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.8984375" style="1"/>
+    <col min="2" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="24" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1666,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,7 +1720,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1774,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1805,7 +1799,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1830,7 +1824,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1855,7 +1849,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1880,7 +1874,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1905,7 +1899,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1930,7 +1924,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1955,7 +1949,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1980,7 +1974,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2005,7 +1999,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2030,7 +2024,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2055,7 +2049,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2092,19 +2086,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2146,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2172,19 +2166,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2226,7 +2220,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -2252,20 +2246,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.8984375" style="1"/>
+    <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2275,7 @@
         <v>2E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2291,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +2307,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +2315,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2329,7 +2323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2353,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2361,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2383,7 +2377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2447,19 +2441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2475,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2483,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2503,16 +2497,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39547B8A-6108-4E32-8CB4-B645F959F686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2564,43 +2558,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.41601845883603578</v>
+        <v>0.41601845883613575</v>
       </c>
       <c r="D2">
-        <v>0.46164446049917796</v>
+        <v>0.46164446049929764</v>
       </c>
       <c r="E2">
-        <v>0.40160611167204208</v>
+        <v>0.4016061116721511</v>
       </c>
       <c r="F2">
-        <v>0.32222339027932084</v>
+        <v>0.32222339027941205</v>
       </c>
       <c r="G2">
-        <v>0.25475927528205933</v>
+        <v>0.25475927528213438</v>
       </c>
       <c r="H2">
-        <v>0.20671862796457022</v>
+        <v>0.2067186279646348</v>
       </c>
       <c r="I2">
-        <v>0.17607811793802902</v>
+        <v>0.17607811793808792</v>
       </c>
       <c r="J2">
-        <v>0.15806474867119416</v>
+        <v>0.15806474867125064</v>
       </c>
       <c r="K2">
-        <v>0.14818374919509461</v>
+        <v>0.14818374919515098</v>
       </c>
       <c r="L2">
-        <v>0.14312053036619232</v>
+        <v>0.14312053036624917</v>
       </c>
       <c r="M2">
-        <v>0.14072227173275337</v>
+        <v>0.1407222717328106</v>
       </c>
       <c r="N2">
-        <v>0.13970470993020412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.13970470993026229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2608,43 +2602,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.78519400653317939</v>
+        <v>-0.78519400653320592</v>
       </c>
       <c r="D3">
-        <v>-1.4921093863093176</v>
+        <v>-1.4921093863093891</v>
       </c>
       <c r="E3">
-        <v>-2.1072309877752806</v>
+        <v>-2.107230987775381</v>
       </c>
       <c r="F3">
-        <v>-2.5919469262805697</v>
+        <v>-2.5919469262806754</v>
       </c>
       <c r="G3">
-        <v>-2.9273554154324675</v>
+        <v>-2.927355415432551</v>
       </c>
       <c r="H3">
-        <v>-3.1288207570672464</v>
+        <v>-3.1288207570672943</v>
       </c>
       <c r="I3">
-        <v>-3.2341773796528619</v>
+        <v>-3.2341773796528734</v>
       </c>
       <c r="J3">
-        <v>-3.2819080282673956</v>
+        <v>-3.2819080282673783</v>
       </c>
       <c r="K3">
-        <v>-3.2997179743534977</v>
+        <v>-3.2997179743534599</v>
       </c>
       <c r="L3">
-        <v>-3.3039199169690869</v>
+        <v>-3.3039199169690359</v>
       </c>
       <c r="M3">
-        <v>-3.3028912659683964</v>
+        <v>-3.3028912659683378</v>
       </c>
       <c r="N3">
-        <v>-3.30046119060626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-3.3004611906061969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2652,40 +2646,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.17073795097936664</v>
+        <v>0.17073795097947531</v>
       </c>
       <c r="D4">
-        <v>0.3678931838479273</v>
+        <v>0.3678931838480225</v>
       </c>
       <c r="E4">
-        <v>0.48201869481877563</v>
+        <v>0.48201869481884141</v>
       </c>
       <c r="F4">
-        <v>0.53615813211907237</v>
+        <v>0.5361581321191129</v>
       </c>
       <c r="G4">
-        <v>0.55716755654251959</v>
+        <v>0.55716755654254047</v>
       </c>
       <c r="H4">
-        <v>0.56223575282312044</v>
+        <v>0.56223575282312688</v>
       </c>
       <c r="I4">
-        <v>0.56078361032811785</v>
+        <v>0.56078361032811563</v>
       </c>
       <c r="J4">
-        <v>0.55746984718541115</v>
+        <v>0.55746984718540282</v>
       </c>
       <c r="K4">
-        <v>0.55427119239409461</v>
+        <v>0.55427119239408307</v>
       </c>
       <c r="L4">
-        <v>0.5518150955648583</v>
+        <v>0.5518150955648452</v>
       </c>
       <c r="M4">
-        <v>0.55014094472964292</v>
+        <v>0.55014094472962893</v>
       </c>
       <c r="N4">
-        <v>0.54908800515461031</v>
+        <v>0.54908800515459599</v>
       </c>
     </row>
   </sheetData>
@@ -2694,16 +2688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B2A0BE-766C-40A7-A57C-83C4C65B29B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2717,7 +2711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2745,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
